--- a/日経社説ー春秋/M＆Aリスクの丁寧な説明を.xlsx
+++ b/日経社説ー春秋/M＆Aリスクの丁寧な説明を.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ywu\Desktop\translation\日経社説ー春秋\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16860" windowHeight="10560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,141 +19,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>決算</t>
-  </si>
-  <si>
-    <t>計上</t>
-  </si>
-  <si>
-    <t>純資産</t>
-  </si>
-  <si>
-    <t>のれん</t>
-  </si>
-  <si>
-    <t>切り下げる</t>
-  </si>
-  <si>
-    <t>減損</t>
-  </si>
-  <si>
-    <t>月期</t>
-  </si>
-  <si>
-    <t>丹念</t>
-  </si>
-  <si>
-    <t>唐突</t>
-  </si>
-  <si>
-    <t>平易</t>
-  </si>
-  <si>
-    <t>図解</t>
-  </si>
-  <si>
-    <t>踏み込む</t>
-  </si>
-  <si>
-    <t>責務</t>
-  </si>
-  <si>
-    <t>けっさん</t>
-  </si>
-  <si>
-    <t>企業などで、一定の時期を画して収益と費用を算定し、その財産状況を明らかにすること。</t>
-  </si>
-  <si>
-    <t>けいじょう</t>
-  </si>
-  <si>
-    <t>一つ一つ挙げて全体の数値に組み入れること。</t>
-  </si>
-  <si>
-    <t>買収</t>
-  </si>
-  <si>
-    <t>ばいしゅう</t>
-  </si>
-  <si>
-    <t>買い取ること。買い占めること。</t>
-  </si>
-  <si>
-    <t>じゅんしさん</t>
-  </si>
-  <si>
-    <t>資産総額から負債総額を差し引いた額。</t>
-  </si>
-  <si>
-    <t>営業活動から生まれる、得意先関係・仕入れ先関係・営業の秘訣・信用・名声など、無形の経済的財産。</t>
-  </si>
-  <si>
-    <t>きりさげ</t>
-  </si>
-  <si>
-    <t>通貨の対外価値を引き下げる。</t>
-  </si>
-  <si>
-    <t>げんそん</t>
-  </si>
-  <si>
-    <t>減ること。減らすこと。</t>
-  </si>
-  <si>
-    <t>がつき</t>
-  </si>
-  <si>
-    <t>主に企業における決算月のこと。</t>
-  </si>
-  <si>
-    <t>たんねん</t>
-  </si>
-  <si>
-    <t>細かい点にまで心を配ること。真心を込めてすること。また、そのさま、入念。</t>
-  </si>
-  <si>
-    <t>とうとつ</t>
-  </si>
-  <si>
-    <t>前触れもなく出し抜けに物事を行って不自然であるさま。不意。突然。</t>
-  </si>
-  <si>
-    <t>へいい</t>
-  </si>
-  <si>
-    <t>やさしいこと。難しくないこと。また、そのさま。</t>
-  </si>
-  <si>
-    <t>ずかい</t>
-  </si>
-  <si>
-    <t>物事を図を描いて説明すること。また、その説明。</t>
-  </si>
-  <si>
-    <t>ふみこむ</t>
-  </si>
-  <si>
-    <t>物事の奥深くまで立ち入る。物事の核心・本質などを考慮に入れる。</t>
-  </si>
-  <si>
-    <t>せきむ</t>
-  </si>
-  <si>
-    <t>自分の責任として果たさねばならない事柄。つとめ。</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>環境の急変で買収した企業や事業の価値が下がったことに伴う会計処理だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企業はM＆Aに関する損失発生のリスクを丁寧に説明していく必要がある。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企業は買収した事業が見込みほど収益を産まないと判断した場合、のれんや営業権の評価を切り下げ、その分を損失に計上しなければならない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>こうした会計処理を減損という。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>東芝は買収した米原子力発電事業の経費が予想外に増えたため、のれんの減損などにより７０００億円規模の損失が見込まれる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ソニーはDVDソフトの販売苦戦で、米映画会社の営業権について２０１６年１０－１２月期決算に１１２１億円の減損損失を計上した。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>減損会計の前提となるのは、事業が将来にわたってどの程度の収益を生むかという見積もりだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有価証券報告書を丹念に読めば、減損についての経営判断を知ることができる。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ある程度は損失発生のリスクを察知し備えることも可能だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>損失が巨額な場合は、企業や株式市場に不信感を抱くきっかけになりかねない。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M&amp;Aの増加に伴い。今や上場企業が抱えるのれんは総額で２０兆円を超える。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>企業は決算内容を平易に図解した説明資料を活用し、減損の可能性について踏み込んだ説明を試みるべきだ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>監査法人の責務も重い。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>のれんなどの会計処理が妥当なものかどうか。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>専門家の立場から、より厳しく目を光らせてほしい。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上場企業の決算で、過去に実施したM＆A（合併</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>買収）の損失を計上する例が増えてきた。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特に目立つのは、買収額と対象企業の純資産の差である「のれん」や、買収先の「営業権」と言った見えない試算から発生する損失の処理だ。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>とはいえ、時間の制約があり経験に乏しい個人投資家の目に、減損の発表は唐突に映ることが多い。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -182,11 +165,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -244,7 +230,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,7 +265,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,179 +442,120 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="79.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="27">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="27">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="27">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="27">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="27">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="27">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="27">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>